--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>死灵之光：指定攻击一条鱼，以此鱼为圆心，死光随机攻击周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>限制：稀有品质以上炮台可用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -250,10 +246,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力，持续20秒\n被动效果：提高击杀寒冰龙王的概率//假的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP1开启</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -326,10 +318,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>穿透弹：发射一发穿透弹，可穿透任何鱼类并攻击同一条线上的其他鱼类，触碰边缘后子弹反弹若干次后爆炸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_p6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -366,14 +354,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>“buygift”,10237,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>“buygift”,10238,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"buyitem",26,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -400,6 +380,24 @@
   <si>
     <t>"sys_qd","panel"</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀寒冰龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：指定攻击一点，死光随机攻击周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可攻击同一条线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift”,10237,</t>
+  </si>
+  <si>
+    <t>"buygift”,10238,</t>
   </si>
 </sst>
 </file>
@@ -823,9 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -912,7 +910,7 @@
         <v>26</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -924,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -936,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -948,10 +946,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -974,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -986,10 +984,10 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1012,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -1021,13 +1019,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1038,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1050,22 +1048,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1088,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -1126,22 +1124,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1164,19 +1162,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1199,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
@@ -1208,13 +1206,13 @@
         <v>23</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1237,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -1246,10 +1244,10 @@
         <v>24</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1260,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -1272,22 +1270,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -394,10 +394,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"buygift”,10237,</t>
-  </si>
-  <si>
-    <t>"buygift”,10238,</t>
+    <t>"buygift",10237,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10238,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,9 +823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>id|行号</t>
   </si>
@@ -230,22 +230,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，有几率捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>限制：稀有品质以上炮台可用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>装备后效果：捕鱼命中率提升千分之五\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：隐藏子弹获得概率提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP1开启</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -294,30 +282,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>礼包购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP2开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_p6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -382,23 +346,63 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀寒冰龙王的概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：指定攻击一点，死光随机攻击周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可攻击同一条线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"buygift",10237,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>"buygift",10238,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -912,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -924,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -936,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -948,10 +952,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -974,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -986,10 +990,10 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1012,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -1021,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1038,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1050,22 +1054,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1088,22 +1092,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -1126,22 +1130,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1164,19 +1168,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1199,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
@@ -1208,13 +1212,13 @@
         <v>23</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1237,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -1246,10 +1250,10 @@
         <v>24</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1260,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -1272,22 +1276,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>id|行号</t>
   </si>
@@ -346,63 +346,91 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10238,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>"buygift",10237,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10238,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
+    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费198元购买【神龙之力】永久使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -500,6 +528,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,7 +547,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -825,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,14 +881,16 @@
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
     <col min="11" max="11" width="28.75" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,8 +927,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -920,7 +970,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -957,8 +1007,12 @@
       <c r="L3" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -990,13 +1044,17 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1025,16 +1083,20 @@
         <v>22</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1063,16 +1125,22 @@
         <v>46</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1101,16 +1169,22 @@
         <v>41</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="M7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1139,16 +1213,22 @@
         <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1183,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1220,8 +1300,12 @@
       <c r="L10" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1250,13 +1334,17 @@
         <v>24</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1285,13 +1373,19 @@
         <v>42</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>50</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -155,401 +155,401 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>desc_get|获得方式描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id|道具ID，全局唯一，这个不能修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_parm|使用参数，找程序确认该填写的内容值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+  </si>
+  <si>
+    <t>gun_bed_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_2</t>
+  </si>
+  <si>
+    <t>gun_bed_3</t>
+  </si>
+  <si>
+    <t>小钢炮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制：稀有品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_pt_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金焰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",26,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",27,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送基础炮座</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续签到获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vip","hint"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_qd","panel"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10238,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10237,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费198元购买【神龙之力】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_2</t>
+  </si>
+  <si>
+    <t>head_frame_3</t>
+  </si>
+  <si>
+    <t>head_frame_4</t>
+  </si>
+  <si>
+    <t>head_frame_5</t>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险 I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险 II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险 III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险 IV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险 V</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  I</t>
+  </si>
+  <si>
+    <t>圣光  II</t>
+  </si>
+  <si>
+    <t>圣光  III</t>
+  </si>
+  <si>
+    <t>圣光  IV</t>
+  </si>
+  <si>
+    <t>圣光  V</t>
+  </si>
+  <si>
+    <t>gun_barrel_8</t>
+  </si>
+  <si>
+    <t>gun_barrel_9</t>
+  </si>
+  <si>
+    <t>gun_barrel_10</t>
+  </si>
+  <si>
+    <t>gun_barrel_11</t>
+  </si>
+  <si>
+    <t>gun_barrel_12</t>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|类型1是炮台2是基座3是头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>desc|技能特殊效果描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_get|获得方式描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id|道具ID，全局唯一，这个不能修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type|类型1是炮台2是基座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_parm|使用参数，找程序确认该填写的内容值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_3</t>
-  </si>
-  <si>
-    <t>gun_barrel_4</t>
-  </si>
-  <si>
-    <t>gun_barrel_6</t>
-  </si>
-  <si>
-    <t>gun_bed_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_2</t>
-  </si>
-  <si>
-    <t>gun_bed_3</t>
-  </si>
-  <si>
-    <t>小钢炮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆幻影</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪耀风暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿芒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制：稀有品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_pt_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青柠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金焰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_cs_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",26,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送基础炮座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续签到获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip","hint"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_qd","panel"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10238,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_hint|提示文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_anniu_hint|按钮上的文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10237,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【金焰】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费198元购买【神龙之力】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_2</t>
-  </si>
-  <si>
-    <t>head_frame_3</t>
-  </si>
-  <si>
-    <t>head_frame_4</t>
-  </si>
-  <si>
-    <t>head_frame_5</t>
-  </si>
-  <si>
-    <t>30级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 III</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 IV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 V</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光  I</t>
-  </si>
-  <si>
-    <t>圣光  II</t>
-  </si>
-  <si>
-    <t>圣光  III</t>
-  </si>
-  <si>
-    <t>圣光  IV</t>
-  </si>
-  <si>
-    <t>圣光  V</t>
-  </si>
-  <si>
-    <t>gun_barrel_8</t>
-  </si>
-  <si>
-    <t>gun_barrel_9</t>
-  </si>
-  <si>
-    <t>gun_barrel_10</t>
-  </si>
-  <si>
-    <t>gun_barrel_11</t>
-  </si>
-  <si>
-    <t>gun_barrel_12</t>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt4</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt2</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt3</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80级解锁</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -988,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9:K13"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1038,19 +1038,19 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1073,19 +1073,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1109,26 +1109,26 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1151,26 +1151,26 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1193,26 +1193,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1235,28 +1235,28 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9">
         <v>3</v>
@@ -1279,28 +1279,28 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -1323,28 +1323,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1367,19 +1367,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1405,19 +1405,19 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1443,19 +1443,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1469,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1481,19 +1481,19 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -1519,19 +1519,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" s="4">
         <v>12</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -1557,19 +1557,19 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1580,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -1592,26 +1592,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9">
         <v>2</v>
@@ -1634,26 +1634,26 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3">
         <v>3</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
@@ -1676,28 +1676,28 @@
         <v>1</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1723,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1755,13 +1755,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -1787,13 +1787,13 @@
         <v>3</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -1819,13 +1819,13 @@
         <v>4</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>5</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
   <si>
     <t>id|行号</t>
   </si>
@@ -366,190 +366,221 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10237,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费198元购买【神龙之力】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_2</t>
+  </si>
+  <si>
+    <t>head_frame_3</t>
+  </si>
+  <si>
+    <t>head_frame_4</t>
+  </si>
+  <si>
+    <t>head_frame_5</t>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  I</t>
+  </si>
+  <si>
+    <t>圣光  II</t>
+  </si>
+  <si>
+    <t>圣光  III</t>
+  </si>
+  <si>
+    <t>圣光  IV</t>
+  </si>
+  <si>
+    <t>圣光  V</t>
+  </si>
+  <si>
+    <t>gun_barrel_8</t>
+  </si>
+  <si>
+    <t>gun_barrel_9</t>
+  </si>
+  <si>
+    <t>gun_barrel_10</t>
+  </si>
+  <si>
+    <t>gun_barrel_11</t>
+  </si>
+  <si>
+    <t>gun_barrel_12</t>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|类型1是炮台2是基座3是头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|技能特殊效果描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_6</t>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_bg1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx2</t>
+  </si>
+  <si>
+    <t>dt_tx_mx3</t>
+  </si>
+  <si>
+    <t>dt_tx_mx4</t>
+  </si>
+  <si>
+    <t>dt_tx_mx5</t>
+  </si>
+  <si>
+    <t>探险 I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险 II</t>
+  </si>
+  <si>
+    <t>探险 III</t>
+  </si>
+  <si>
+    <t>探险 IV</t>
+  </si>
+  <si>
+    <t>探险 V</t>
+  </si>
+  <si>
     <t>"buygift",10238,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_hint|提示文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_anniu_hint|按钮上的文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10237,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【金焰】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费198元购买【神龙之力】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_2</t>
-  </si>
-  <si>
-    <t>head_frame_3</t>
-  </si>
-  <si>
-    <t>head_frame_4</t>
-  </si>
-  <si>
-    <t>head_frame_5</t>
-  </si>
-  <si>
-    <t>30级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 III</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 IV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险 V</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光  I</t>
-  </si>
-  <si>
-    <t>圣光  II</t>
-  </si>
-  <si>
-    <t>圣光  III</t>
-  </si>
-  <si>
-    <t>圣光  IV</t>
-  </si>
-  <si>
-    <t>圣光  V</t>
-  </si>
-  <si>
-    <t>gun_barrel_8</t>
-  </si>
-  <si>
-    <t>gun_barrel_9</t>
-  </si>
-  <si>
-    <t>gun_barrel_10</t>
-  </si>
-  <si>
-    <t>gun_barrel_11</t>
-  </si>
-  <si>
-    <t>gun_barrel_12</t>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt4</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt2</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt3</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type|类型1是炮台2是基座3是头像框</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|技能特殊效果描述</t>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -986,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1038,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1047,10 +1078,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1159,7 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1170,7 +1201,7 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1212,7 +1243,7 @@
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1247,16 +1278,16 @@
         <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="N6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1288,19 +1319,19 @@
         <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1323,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
@@ -1335,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1355,33 +1386,35 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
     </row>
@@ -1393,33 +1426,35 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
     </row>
@@ -1431,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1443,21 +1478,23 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
     </row>
@@ -1469,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1481,21 +1518,23 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
     </row>
@@ -1507,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -1519,21 +1558,23 @@
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4">
         <v>12</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
     </row>
@@ -1611,7 +1652,7 @@
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1653,7 +1694,7 @@
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1688,16 +1729,16 @@
         <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1708,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1719,18 +1760,19 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
+      <c r="G18" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1740,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1751,17 +1793,23 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
-        <v>2</v>
+      <c r="G19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1772,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -1783,17 +1831,23 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
+      <c r="G20" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1804,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -1815,17 +1869,23 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
+      <c r="G21" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1836,10 +1896,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1847,17 +1907,61 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>81</v>
+      <c r="I23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>id|行号</t>
   </si>
@@ -1021,7 +1021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,9 +1406,7 @@
       <c r="I9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
         <v>99</v>
       </c>
@@ -1446,9 +1444,7 @@
       <c r="I10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
         <v>100</v>
       </c>
@@ -1486,9 +1482,7 @@
       <c r="I11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
         <v>101</v>
       </c>
@@ -1526,9 +1520,7 @@
       <c r="I12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="11" t="s">
         <v>102</v>
       </c>
@@ -1566,9 +1558,7 @@
       <c r="I13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
         <v>79</v>
       </c>
@@ -1802,9 +1792,7 @@
       <c r="I19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
         <v>78</v>
       </c>
@@ -1840,9 +1828,7 @@
       <c r="I20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="J20" s="11"/>
       <c r="K20" s="11" t="s">
         <v>82</v>
       </c>
@@ -1878,9 +1864,7 @@
       <c r="I21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
         <v>81</v>
       </c>
@@ -1916,9 +1900,7 @@
       <c r="I22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
         <v>80</v>
       </c>
@@ -1954,9 +1936,7 @@
       <c r="I23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="J23" s="11"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
       </c>

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -1021,7 +1021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
-    <col min="11" max="11" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="28.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
@@ -1407,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -1445,7 +1445,7 @@
         <v>84</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="5" t="s">
         <v>100</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -1483,7 +1483,7 @@
         <v>85</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="5" t="s">
         <v>101</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -1521,7 +1521,7 @@
         <v>86</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="5" t="s">
         <v>102</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1559,7 +1559,7 @@
         <v>87</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -1762,7 +1762,7 @@
       <c r="J18" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1793,7 +1793,7 @@
         <v>115</v>
       </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="5" t="s">
         <v>78</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -1829,7 +1829,7 @@
         <v>116</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="5" t="s">
         <v>82</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -1865,7 +1865,7 @@
         <v>117</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -1901,7 +1901,7 @@
         <v>118</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -1937,7 +1937,7 @@
         <v>119</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="L23" s="5" t="s">

--- a/config_debug/item_gun_config.xlsx
+++ b/config_debug/item_gun_config.xlsx
@@ -520,6 +520,30 @@
     <t>100级解锁</t>
   </si>
   <si>
+    <t>gun_barrel_13</t>
+  </si>
+  <si>
+    <t>3dby_icon_phw</t>
+  </si>
+  <si>
+    <t>海王炮台</t>
+  </si>
+  <si>
+    <t>海王之力：瞬间提高子弹280%的杀伤力\n被动效果：提高击杀BOSS的概率</t>
+  </si>
+  <si>
+    <t>"sys_txz","choose",</t>
+  </si>
+  <si>
+    <t>"&lt;color=#fff173&gt;海王之力：瞬间提高子弹280%的杀伤力&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高击杀BOSS的概率&lt;/color&gt;"</t>
+  </si>
+  <si>
+    <t>GunPrefab_hw</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_7</t>
+  </si>
+  <si>
     <t>gun_bed_1</t>
   </si>
   <si>
@@ -644,30 +668,6 @@
   </si>
   <si>
     <t>探险 V</t>
-  </si>
-  <si>
-    <t>gun_barrel_13</t>
-  </si>
-  <si>
-    <t>3dby_icon_phw</t>
-  </si>
-  <si>
-    <t>海王炮台</t>
-  </si>
-  <si>
-    <t>海王之力：瞬间提高子弹280%的杀伤力\n被动效果：提高击杀BOSS的概率</t>
-  </si>
-  <si>
-    <t>"sys_txz","choose",</t>
-  </si>
-  <si>
-    <t>"&lt;color=#fff173&gt;海王之力：瞬间提高子弹280%的杀伤力&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高击杀BOSS的概率&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>GunPrefab_hw</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_7</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -708,18 +708,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,8 +750,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,16 +788,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,37 +806,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,6 +825,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -830,31 +850,11 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -884,181 +884,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1107,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1122,37 +1133,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,22 +1175,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1203,10 +1203,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,137 +1215,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1379,9 +1379,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1392,6 +1389,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,12 +1756,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2048,28 +2048,28 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:21">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>5</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -2081,10 +2081,10 @@
       <c r="K6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>58</v>
       </c>
       <c r="N6" s="23" t="s">
@@ -2175,28 +2175,28 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:21">
-      <c r="A8" s="10">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>7</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -2208,10 +2208,10 @@
       <c r="K8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N8" s="23" t="s">
@@ -2429,81 +2429,95 @@
       <c r="M13" s="7"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
+    <row r="14" customFormat="1" ht="15.75" spans="1:20">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
+      <c r="B14" s="3">
+        <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>25</v>
+      <c r="K14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
+    <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:14">
@@ -2511,34 +2525,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="5">
-        <v>3</v>
-      </c>
       <c r="I16" s="25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -2553,87 +2567,96 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="8">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="5">
-        <v>4</v>
-      </c>
       <c r="I17" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>127</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="M17" s="7"/>
       <c r="N17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" s="1" customFormat="1" spans="1:14">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+        <v>130</v>
+      </c>
+      <c r="D18" s="15">
         <v>3</v>
       </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2645,31 +2668,28 @@
         <v>1</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2681,17 +2701,17 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>92</v>
@@ -2702,13 +2722,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -2717,17 +2737,17 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>92</v>
@@ -2738,10 +2758,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -2753,17 +2773,17 @@
         <v>1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>92</v>
@@ -2774,13 +2794,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -2789,77 +2809,76 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="6">
-        <v>5</v>
+        <v>153</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:20">
-      <c r="A24" s="3">
+    <row r="24" spans="1:12">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>13</v>
+      <c r="B24" s="5">
+        <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="3">
-        <v>13</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="R24" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="S24" s="27" t="s">
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:20">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="27"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
